--- a/DATAStructure/src/main/java/com/atguigu/dijkstra/图解.xlsx
+++ b/DATAStructure/src/main/java/com/atguigu/dijkstra/图解.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\DataStructureAndAlg\DATAStructure\src\main\java\com\atguigu\dijkstra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E94F0-08F1-4B14-A8B2-66CF9E70411F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54757A98-012D-478B-8361-EE17F7A4CD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -210,6 +211,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351390</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20E335A-A624-4566-A5D8-69DC773DFA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8276190" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -482,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F3:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -505,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3F3C-3C01-4DC2-8727-E87BDBFED5D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -517,4 +567,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670F0400-1ACF-4824-AAD7-93EAA373D2BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>